--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\algo-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACE5748-FAE5-4298-BDA2-0CDB0D735122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB66E06-CF2F-4516-893E-D3D58F22E993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38415" yWindow="10425" windowWidth="38640" windowHeight="15840" xr2:uid="{6B48BC49-04A5-4EF7-A68D-A8166C688BA0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Test №</t>
   </si>
@@ -54,6 +54,33 @@
   </si>
   <si>
     <t>54.4198157s</t>
+  </si>
+  <si>
+    <t>1e7</t>
+  </si>
+  <si>
+    <t>9m44.4657038s</t>
+  </si>
+  <si>
+    <t>1e8</t>
+  </si>
+  <si>
+    <t>483.2712ms</t>
+  </si>
+  <si>
+    <t>47.8981ms</t>
+  </si>
+  <si>
+    <t>1e9</t>
+  </si>
+  <si>
+    <t>11m58.5606473s</t>
+  </si>
+  <si>
+    <t>4.825348s</t>
+  </si>
+  <si>
+    <t>48.8522551s</t>
   </si>
 </sst>
 </file>
@@ -422,7 +449,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,39 +485,63 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\algo-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB66E06-CF2F-4516-893E-D3D58F22E993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A7EA0-8FE6-4236-BD2D-5FE334AAAE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38415" yWindow="10425" windowWidth="38640" windowHeight="15840" xr2:uid="{6B48BC49-04A5-4EF7-A68D-A8166C688BA0}"/>
+    <workbookView xWindow="40965" yWindow="11955" windowWidth="28800" windowHeight="11385" xr2:uid="{6B48BC49-04A5-4EF7-A68D-A8166C688BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,25 +113,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -449,19 +471,19 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -479,55 +501,60 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
